--- a/Documentation/Instruction_set.xlsx
+++ b/Documentation/Instruction_set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pobrane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\IIstopien\PBL\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C579CA0B-6ECE-484F-A737-72C62CF09A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D98C75B-4C80-468E-ABCB-303B02877184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="88">
   <si>
     <t>op_code</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>LDN</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>8'h21</t>
   </si>
 </sst>
 </file>
@@ -695,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1730,6 +1736,43 @@
         <v>57</v>
       </c>
     </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
